--- a/AfDD_2025_Annex_Table_Tab25.xlsx
+++ b/AfDD_2025_Annex_Table_Tab25.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EEE6069-C7BD-4DA1-974E-804D0340BC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E0AEAC-6B39-41AD-B249-3E5C3B8E7FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{7B423233-31CF-4633-87A5-42D611372F96}"/>
+    <workbookView xWindow="-34365" yWindow="-1140" windowWidth="19410" windowHeight="20985" xr2:uid="{851BD74B-1F93-4937-832E-FECF60F92A54}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab25'!$A$2:$J$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab25'!$A$2:$I$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab25'!$A$1:$I$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Table 25: Basic health indicators</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Probability of dying before age 40 (deaths under age 40 per 1,000 live births), 2020</t>
   </si>
   <si>
-    <t>Global Hunger Index, 2023</t>
-  </si>
-  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>Botswana</t>
-  </si>
-  <si>
-    <t>Update will be coming soon</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -563,7 +557,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,13 +626,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -938,7 +925,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -983,8 +970,11 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -998,12 +988,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1016,19 +1000,19 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,25 +1066,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1115,13 +1099,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1148,28 +1132,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1453,23 +1437,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF275AA-3FDC-4A17-9834-AB58AB71B528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDC0E92-0D80-49B0-8761-11555A71841A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.42578125" style="81" customWidth="1"/>
-    <col min="11" max="26" width="14.42578125" customWidth="1"/>
+    <col min="3" max="9" width="14.42578125" style="80" customWidth="1"/>
+    <col min="10" max="25" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1480,9 +1466,8 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1510,1680 +1495,2885 @@
       <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="11">
+        <v>63.116399999999999</v>
+      </c>
+      <c r="D3" s="12">
+        <v>65.773600000000002</v>
+      </c>
+      <c r="E3" s="13">
+        <v>60.508899999999997</v>
+      </c>
+      <c r="F3" s="12">
+        <v>5.3711000000000002</v>
+      </c>
+      <c r="G3" s="12">
+        <v>53.516599999999997</v>
+      </c>
+      <c r="H3" s="12">
+        <v>71.578900000000004</v>
+      </c>
+      <c r="I3" s="13">
+        <v>147.90090000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="15">
+        <v>67.642600000000002</v>
+      </c>
+      <c r="D4" s="16">
+        <v>70.357799999999997</v>
+      </c>
+      <c r="E4" s="17">
+        <v>65.039699999999996</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2.8614000000000002</v>
+      </c>
+      <c r="G4" s="16">
+        <v>30.891400000000001</v>
+      </c>
+      <c r="H4" s="16">
+        <v>41.227899999999998</v>
+      </c>
+      <c r="I4" s="17">
+        <v>92.980800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="C5" s="15">
+        <v>59.861800000000002</v>
+      </c>
+      <c r="D5" s="19">
+        <v>62.790399999999998</v>
+      </c>
+      <c r="E5" s="20">
+        <v>56.924399999999999</v>
+      </c>
+      <c r="F5" s="19">
+        <v>2.8881999999999999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>41.450800000000001</v>
+      </c>
+      <c r="H5" s="19">
+        <v>54.659700000000001</v>
+      </c>
+      <c r="I5" s="20">
+        <v>167.80160000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="C6" s="15">
+        <v>55.1325</v>
+      </c>
+      <c r="D6" s="19">
+        <v>57.668900000000001</v>
+      </c>
+      <c r="E6" s="20">
+        <v>52.502200000000002</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2.8462000000000001</v>
+      </c>
+      <c r="G6" s="19">
+        <v>59.931800000000003</v>
+      </c>
+      <c r="H6" s="19">
+        <v>76.314899999999994</v>
+      </c>
+      <c r="I6" s="20">
+        <v>240.52119999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="C7" s="15">
+        <v>65.215900000000005</v>
+      </c>
+      <c r="D7" s="19">
+        <v>68.812899999999999</v>
+      </c>
+      <c r="E7" s="20">
+        <v>61.675699999999999</v>
+      </c>
+      <c r="F7" s="19">
+        <v>3.8774000000000002</v>
+      </c>
+      <c r="G7" s="19">
+        <v>32.878599999999999</v>
+      </c>
+      <c r="H7" s="19">
+        <v>43.729700000000001</v>
+      </c>
+      <c r="I7" s="20">
+        <v>117.4218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="15">
+        <v>61.3904</v>
+      </c>
+      <c r="D8" s="19">
+        <v>64.169899999999998</v>
+      </c>
+      <c r="E8" s="20">
+        <v>58.2376</v>
+      </c>
+      <c r="F8" s="19">
+        <v>4.9589999999999996</v>
+      </c>
+      <c r="G8" s="19">
+        <v>54.021299999999997</v>
+      </c>
+      <c r="H8" s="19">
+        <v>70.543999999999997</v>
+      </c>
+      <c r="I8" s="20">
+        <v>153.31010000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="C9" s="21">
+        <v>64.071200000000005</v>
+      </c>
+      <c r="D9" s="19">
+        <v>68.034999999999997</v>
+      </c>
+      <c r="E9" s="20">
+        <v>60.161999999999999</v>
+      </c>
+      <c r="F9" s="19">
+        <v>3.3491</v>
+      </c>
+      <c r="G9" s="19">
+        <v>29.464300000000001</v>
+      </c>
+      <c r="H9" s="19">
+        <v>40.450499999999998</v>
+      </c>
+      <c r="I9" s="20">
+        <v>126.50790000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="C10" s="21">
+        <v>65.150199999999998</v>
+      </c>
+      <c r="D10" s="19">
+        <v>67.948300000000003</v>
+      </c>
+      <c r="E10" s="20">
+        <v>62.174199999999999</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2.2565</v>
+      </c>
+      <c r="G10" s="19">
+        <v>21.768699999999999</v>
+      </c>
+      <c r="H10" s="19">
+        <v>29.289899999999999</v>
+      </c>
+      <c r="I10" s="20">
+        <v>119.5367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="C11" s="15">
+        <v>63.360700000000001</v>
+      </c>
+      <c r="D11" s="16">
+        <v>65.952799999999996</v>
+      </c>
+      <c r="E11" s="17">
+        <v>60.730899999999998</v>
+      </c>
+      <c r="F11" s="16">
+        <v>4.3231999999999999</v>
+      </c>
+      <c r="G11" s="16">
+        <v>41.384300000000003</v>
+      </c>
+      <c r="H11" s="16">
+        <v>59.146799999999999</v>
+      </c>
+      <c r="I11" s="17">
+        <v>134.41220000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="C12" s="23">
+        <v>61.53</v>
+      </c>
+      <c r="D12" s="24">
+        <v>63.7468</v>
+      </c>
+      <c r="E12" s="25">
+        <v>59.090600000000002</v>
+      </c>
+      <c r="F12" s="24">
+        <v>3.7543000000000002</v>
+      </c>
+      <c r="G12" s="24">
+        <v>35.704799999999999</v>
+      </c>
+      <c r="H12" s="24">
+        <v>49.991599999999998</v>
+      </c>
+      <c r="I12" s="25">
+        <v>152.89230000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="C13" s="28">
+        <v>62.647170000000003</v>
+      </c>
+      <c r="D13" s="29">
+        <v>65.525639999999996</v>
+      </c>
+      <c r="E13" s="30">
+        <v>59.704619999999998</v>
+      </c>
+      <c r="F13" s="29">
+        <v>3.6486399999999999</v>
+      </c>
+      <c r="G13" s="29">
+        <v>40.101260000000003</v>
+      </c>
+      <c r="H13" s="29">
+        <v>53.693390000000001</v>
+      </c>
+      <c r="I13" s="30">
+        <v>145.32855000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="C14" s="21">
+        <v>62.569400000000002</v>
+      </c>
+      <c r="D14" s="19">
+        <v>64.579700000000003</v>
+      </c>
+      <c r="E14" s="20">
+        <v>60.545499999999997</v>
+      </c>
+      <c r="F14" s="19">
+        <v>5.1765999999999996</v>
+      </c>
+      <c r="G14" s="19">
+        <v>38.755699999999997</v>
+      </c>
+      <c r="H14" s="19">
+        <v>54.6843</v>
+      </c>
+      <c r="I14" s="20">
+        <v>169.4486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="C15" s="21">
+        <v>61.6738</v>
+      </c>
+      <c r="D15" s="19">
+        <v>63.975999999999999</v>
+      </c>
+      <c r="E15" s="20">
+        <v>59.4649</v>
+      </c>
+      <c r="F15" s="19">
+        <v>4.5566000000000004</v>
+      </c>
+      <c r="G15" s="19">
+        <v>51.779200000000003</v>
+      </c>
+      <c r="H15" s="19">
+        <v>74.815299999999993</v>
+      </c>
+      <c r="I15" s="20">
+        <v>159.68340000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="C16" s="21">
+        <v>50.5959</v>
+      </c>
+      <c r="D16" s="19">
+        <v>54.010599999999997</v>
+      </c>
+      <c r="E16" s="20">
+        <v>47.219499999999996</v>
+      </c>
+      <c r="F16" s="19">
+        <v>6.0587</v>
+      </c>
+      <c r="G16" s="19">
+        <v>80.724000000000004</v>
+      </c>
+      <c r="H16" s="19">
+        <v>122.1143</v>
+      </c>
+      <c r="I16" s="20">
+        <v>305.214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="C17" s="32">
+        <v>53.081800000000001</v>
+      </c>
+      <c r="D17" s="33">
+        <v>54.893000000000001</v>
+      </c>
+      <c r="E17" s="34">
+        <v>51.340600000000002</v>
+      </c>
+      <c r="F17" s="33">
+        <v>6.3464</v>
+      </c>
+      <c r="G17" s="33">
+        <v>70.099199999999996</v>
+      </c>
+      <c r="H17" s="33">
+        <v>110.0235</v>
+      </c>
+      <c r="I17" s="34">
+        <v>285.97460000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="C18" s="32">
+        <v>64.390699999999995</v>
+      </c>
+      <c r="D18" s="33">
+        <v>66.160600000000002</v>
+      </c>
+      <c r="E18" s="34">
+        <v>62.688600000000001</v>
+      </c>
+      <c r="F18" s="33">
+        <v>4.3295000000000003</v>
+      </c>
+      <c r="G18" s="33">
+        <v>31.696100000000001</v>
+      </c>
+      <c r="H18" s="33">
+        <v>43.370600000000003</v>
+      </c>
+      <c r="I18" s="34">
+        <v>119.1755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="C19" s="15">
+        <v>60.4283</v>
+      </c>
+      <c r="D19" s="16">
+        <v>62.534500000000001</v>
+      </c>
+      <c r="E19" s="17">
+        <v>58.372599999999998</v>
+      </c>
+      <c r="F19" s="16">
+        <v>6.2057000000000002</v>
+      </c>
+      <c r="G19" s="16">
+        <v>53.577800000000003</v>
+      </c>
+      <c r="H19" s="16">
+        <v>80.829800000000006</v>
+      </c>
+      <c r="I19" s="17">
+        <v>195.47370000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B20" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="C20" s="32">
+        <v>62.140799999999999</v>
+      </c>
+      <c r="D20" s="33">
+        <v>64.222499999999997</v>
+      </c>
+      <c r="E20" s="34">
+        <v>60.349200000000003</v>
+      </c>
+      <c r="F20" s="33">
+        <v>4.3463000000000003</v>
+      </c>
+      <c r="G20" s="33">
+        <v>58.114400000000003</v>
+      </c>
+      <c r="H20" s="33">
+        <v>78.420100000000005</v>
+      </c>
+      <c r="I20" s="34">
+        <v>155.00360000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="C21" s="32">
+        <v>67.072500000000005</v>
+      </c>
+      <c r="D21" s="33">
+        <v>69.715999999999994</v>
+      </c>
+      <c r="E21" s="34">
+        <v>64.725200000000001</v>
+      </c>
+      <c r="F21" s="33">
+        <v>3.8306</v>
+      </c>
+      <c r="G21" s="33">
+        <v>30.3795</v>
+      </c>
+      <c r="H21" s="33">
+        <v>41.2164</v>
+      </c>
+      <c r="I21" s="34">
+        <v>101.3399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B22" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="C22" s="36">
+        <v>67.978999999999999</v>
+      </c>
+      <c r="D22" s="37">
+        <v>72.048699999999997</v>
+      </c>
+      <c r="E22" s="38">
+        <v>64.591399999999993</v>
+      </c>
+      <c r="F22" s="37">
+        <v>3.8268</v>
+      </c>
+      <c r="G22" s="37">
+        <v>13.5954</v>
+      </c>
+      <c r="H22" s="37">
+        <v>16.224399999999999</v>
+      </c>
+      <c r="I22" s="38">
+        <v>78.537899999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="C23" s="28">
+        <v>61.103577999999999</v>
+      </c>
+      <c r="D23" s="29">
+        <v>63.571289</v>
+      </c>
+      <c r="E23" s="30">
+        <v>58.810833000000002</v>
+      </c>
+      <c r="F23" s="29">
+        <v>4.9641330000000004</v>
+      </c>
+      <c r="G23" s="29">
+        <v>47.6357</v>
+      </c>
+      <c r="H23" s="29">
+        <v>69.077633000000006</v>
+      </c>
+      <c r="I23" s="30">
+        <v>174.42791099999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
+      <c r="B24" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="C24" s="40">
+        <v>65.755899999999997</v>
+      </c>
+      <c r="D24" s="41">
+        <v>67.999899999999997</v>
+      </c>
+      <c r="E24" s="42">
+        <v>63.725499999999997</v>
+      </c>
+      <c r="F24" s="41">
+        <v>4.0713999999999997</v>
+      </c>
+      <c r="G24" s="41">
+        <v>40.742400000000004</v>
+      </c>
+      <c r="H24" s="41">
+        <v>51.459800000000001</v>
+      </c>
+      <c r="I24" s="42">
+        <v>107.7166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B25" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="C25" s="21">
+        <v>64.200100000000006</v>
+      </c>
+      <c r="D25" s="19">
+        <v>66.847399999999993</v>
+      </c>
+      <c r="E25" s="20">
+        <v>61.6556</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="G25" s="19">
+        <v>39.278700000000001</v>
+      </c>
+      <c r="H25" s="19">
+        <v>55.565300000000001</v>
+      </c>
+      <c r="I25" s="20">
+        <v>148.74199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="C26" s="21">
+        <v>66.980199999999996</v>
+      </c>
+      <c r="D26" s="19">
+        <v>69.263800000000003</v>
+      </c>
+      <c r="E26" s="20">
+        <v>64.626599999999996</v>
+      </c>
+      <c r="F26" s="19">
+        <v>3.9333999999999998</v>
+      </c>
+      <c r="G26" s="19">
+        <v>29.664000000000001</v>
+      </c>
+      <c r="H26" s="19">
+        <v>39.186399999999999</v>
+      </c>
+      <c r="I26" s="20">
+        <v>120.1943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="C27" s="21">
+        <v>65.968800000000002</v>
+      </c>
+      <c r="D27" s="19">
+        <v>69.368200000000002</v>
+      </c>
+      <c r="E27" s="20">
+        <v>62.7789</v>
+      </c>
+      <c r="F27" s="19">
+        <v>4.2744999999999997</v>
+      </c>
+      <c r="G27" s="19">
+        <v>36.289700000000003</v>
+      </c>
+      <c r="H27" s="19">
+        <v>50.364600000000003</v>
+      </c>
+      <c r="I27" s="20">
+        <v>133.28200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="C28" s="21">
+        <v>61.595799999999997</v>
+      </c>
+      <c r="D28" s="19">
+        <v>64.239900000000006</v>
+      </c>
+      <c r="E28" s="20">
+        <v>59.1447</v>
+      </c>
+      <c r="F28" s="19">
+        <v>3.3637999999999999</v>
+      </c>
+      <c r="G28" s="19">
+        <v>31.366</v>
+      </c>
+      <c r="H28" s="19">
+        <v>48.3095</v>
+      </c>
+      <c r="I28" s="20">
+        <v>154.11519999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="C29" s="21">
+        <v>62.706000000000003</v>
+      </c>
+      <c r="D29" s="19">
+        <v>64.575999999999993</v>
+      </c>
+      <c r="E29" s="20">
+        <v>60.915599999999998</v>
+      </c>
+      <c r="F29" s="19">
+        <v>4.1696</v>
+      </c>
+      <c r="G29" s="19">
+        <v>45.234499999999997</v>
+      </c>
+      <c r="H29" s="19">
+        <v>66.004000000000005</v>
+      </c>
+      <c r="I29" s="20">
+        <v>164.59479999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="C30" s="21">
+        <v>74.657200000000003</v>
+      </c>
+      <c r="D30" s="19">
+        <v>78.366500000000002</v>
+      </c>
+      <c r="E30" s="20">
+        <v>71.282300000000006</v>
+      </c>
+      <c r="F30" s="19">
+        <v>1.3871</v>
+      </c>
+      <c r="G30" s="19">
+        <v>14.927099999999999</v>
+      </c>
+      <c r="H30" s="19">
+        <v>15.805199999999999</v>
+      </c>
+      <c r="I30" s="20">
+        <v>49.871299999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="C31" s="21">
+        <v>66.953400000000002</v>
+      </c>
+      <c r="D31" s="19">
+        <v>69.062700000000007</v>
+      </c>
+      <c r="E31" s="20">
+        <v>64.637900000000002</v>
+      </c>
+      <c r="F31" s="19">
+        <v>3.9134000000000002</v>
+      </c>
+      <c r="G31" s="19">
+        <v>30.1889</v>
+      </c>
+      <c r="H31" s="19">
+        <v>40.709400000000002</v>
+      </c>
+      <c r="I31" s="20">
+        <v>104.2642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="C32" s="21">
+        <v>74.091200000000001</v>
+      </c>
+      <c r="D32" s="19">
+        <v>78.615899999999996</v>
+      </c>
+      <c r="E32" s="20">
+        <v>70.554699999999997</v>
+      </c>
+      <c r="F32" s="19">
+        <v>2.2269000000000001</v>
+      </c>
+      <c r="G32" s="19">
+        <v>12.073499999999999</v>
+      </c>
+      <c r="H32" s="19">
+        <v>14.6511</v>
+      </c>
+      <c r="I32" s="20">
+        <v>55.787700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="C33" s="21">
+        <v>57.094799999999999</v>
+      </c>
+      <c r="D33" s="19">
+        <v>59.176200000000001</v>
+      </c>
+      <c r="E33" s="20">
+        <v>55.075699999999998</v>
+      </c>
+      <c r="F33" s="19">
+        <v>6.4527000000000001</v>
+      </c>
+      <c r="G33" s="19">
+        <v>72.098399999999998</v>
+      </c>
+      <c r="H33" s="19">
+        <v>113.4756</v>
+      </c>
+      <c r="I33" s="20">
+        <v>234.78659999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B34" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="C34" s="32">
+        <v>57.6479</v>
+      </c>
+      <c r="D34" s="33">
+        <v>60.46</v>
+      </c>
+      <c r="E34" s="34">
+        <v>54.842799999999997</v>
+      </c>
+      <c r="F34" s="33">
+        <v>4.1603000000000003</v>
+      </c>
+      <c r="G34" s="33">
+        <v>63.806899999999999</v>
+      </c>
+      <c r="H34" s="33">
+        <v>99.138800000000003</v>
+      </c>
+      <c r="I34" s="34">
+        <v>231.3733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B35" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="C35" s="21">
+        <v>65.123699999999999</v>
+      </c>
+      <c r="D35" s="19">
+        <v>68.153099999999995</v>
+      </c>
+      <c r="E35" s="20">
+        <v>62.4131</v>
+      </c>
+      <c r="F35" s="19">
+        <v>4.5419</v>
+      </c>
+      <c r="G35" s="19">
+        <v>39.138300000000001</v>
+      </c>
+      <c r="H35" s="19">
+        <v>55.309899999999999</v>
+      </c>
+      <c r="I35" s="20">
+        <v>136.7576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="C36" s="21">
+        <v>66.771199999999993</v>
+      </c>
+      <c r="D36" s="19">
+        <v>69.960999999999999</v>
+      </c>
+      <c r="E36" s="20">
+        <v>63.667499999999997</v>
+      </c>
+      <c r="F36" s="19">
+        <v>4.8007999999999997</v>
+      </c>
+      <c r="G36" s="19">
+        <v>32.640799999999999</v>
+      </c>
+      <c r="H36" s="19">
+        <v>43.857999999999997</v>
+      </c>
+      <c r="I36" s="20">
+        <v>109.505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B37" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="C37" s="23">
+        <v>66.409800000000004</v>
+      </c>
+      <c r="D37" s="24">
+        <v>69.429500000000004</v>
+      </c>
+      <c r="E37" s="25">
+        <v>63.352400000000003</v>
+      </c>
+      <c r="F37" s="24">
+        <v>4.6211000000000002</v>
+      </c>
+      <c r="G37" s="24">
+        <v>32.122</v>
+      </c>
+      <c r="H37" s="24">
+        <v>43.473300000000002</v>
+      </c>
+      <c r="I37" s="25">
+        <v>117.65779999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="C38" s="28">
+        <v>65.425428999999994</v>
+      </c>
+      <c r="D38" s="29">
+        <v>68.251435999999998</v>
+      </c>
+      <c r="E38" s="30">
+        <v>62.762379000000003</v>
+      </c>
+      <c r="F38" s="29">
+        <v>3.9044210000000001</v>
+      </c>
+      <c r="G38" s="29">
+        <v>37.112228999999999</v>
+      </c>
+      <c r="H38" s="29">
+        <v>52.665064000000001</v>
+      </c>
+      <c r="I38" s="30">
+        <v>133.474886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28" t="s">
+      <c r="B39" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="C39" s="44">
+        <v>73.256799999999998</v>
+      </c>
+      <c r="D39" s="45">
+        <v>74.942700000000002</v>
+      </c>
+      <c r="E39" s="46">
+        <v>71.732900000000001</v>
+      </c>
+      <c r="F39" s="45">
+        <v>2.9403999999999999</v>
+      </c>
+      <c r="G39" s="45">
+        <v>19.1509</v>
+      </c>
+      <c r="H39" s="45">
+        <v>22.836600000000001</v>
+      </c>
+      <c r="I39" s="46">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B40" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="C40" s="21">
+        <v>69.789699999999996</v>
+      </c>
+      <c r="D40" s="19">
+        <v>71.957899999999995</v>
+      </c>
+      <c r="E40" s="20">
+        <v>67.690899999999999</v>
+      </c>
+      <c r="F40" s="19">
+        <v>2.85</v>
+      </c>
+      <c r="G40" s="19">
+        <v>15.9069</v>
+      </c>
+      <c r="H40" s="19">
+        <v>19.3551</v>
+      </c>
+      <c r="I40" s="20">
+        <v>48.6357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B41" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="C41" s="32">
+        <v>72.388199999999998</v>
+      </c>
+      <c r="D41" s="33">
+        <v>75.699600000000004</v>
+      </c>
+      <c r="E41" s="34">
+        <v>69.526700000000005</v>
+      </c>
+      <c r="F41" s="33">
+        <v>2.5070999999999999</v>
+      </c>
+      <c r="G41" s="33">
+        <v>9.5930999999999997</v>
+      </c>
+      <c r="H41" s="33">
+        <v>11.9071</v>
+      </c>
+      <c r="I41" s="34">
+        <v>49.2806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="C42" s="32">
+        <v>66.794300000000007</v>
+      </c>
+      <c r="D42" s="33">
+        <v>68.896600000000007</v>
+      </c>
+      <c r="E42" s="34">
+        <v>64.803600000000003</v>
+      </c>
+      <c r="F42" s="33">
+        <v>4.9122000000000003</v>
+      </c>
+      <c r="G42" s="33">
+        <v>33.651299999999999</v>
+      </c>
+      <c r="H42" s="33">
+        <v>41.819499999999998</v>
+      </c>
+      <c r="I42" s="34">
+        <v>91.715000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B43" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="C43" s="21">
+        <v>73.1327</v>
+      </c>
+      <c r="D43" s="19">
+        <v>75.718400000000003</v>
+      </c>
+      <c r="E43" s="20">
+        <v>70.851500000000001</v>
+      </c>
+      <c r="F43" s="19">
+        <v>2.3195000000000001</v>
+      </c>
+      <c r="G43" s="19">
+        <v>15.997999999999999</v>
+      </c>
+      <c r="H43" s="19">
+        <v>18.618300000000001</v>
+      </c>
+      <c r="I43" s="20">
+        <v>40.272799999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B44" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="C44" s="36">
+        <v>75.003500000000003</v>
+      </c>
+      <c r="D44" s="37">
+        <v>77.744900000000001</v>
+      </c>
+      <c r="E44" s="38">
+        <v>72.396699999999996</v>
+      </c>
+      <c r="F44" s="37">
+        <v>2</v>
+      </c>
+      <c r="G44" s="37">
+        <v>11.134</v>
+      </c>
+      <c r="H44" s="37">
+        <v>13.2988</v>
+      </c>
+      <c r="I44" s="38">
+        <v>37.304000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="C45" s="28">
+        <v>71.727532999999994</v>
+      </c>
+      <c r="D45" s="29">
+        <v>74.160016999999996</v>
+      </c>
+      <c r="E45" s="30">
+        <v>69.500382999999999</v>
+      </c>
+      <c r="F45" s="29">
+        <v>2.9215330000000002</v>
+      </c>
+      <c r="G45" s="29">
+        <v>17.572367</v>
+      </c>
+      <c r="H45" s="29">
+        <v>21.305900000000001</v>
+      </c>
+      <c r="I45" s="30">
+        <v>52.138016999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28" t="s">
+      <c r="B46" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="C46" s="40">
+        <v>60.154000000000003</v>
+      </c>
+      <c r="D46" s="41">
+        <v>61.568600000000004</v>
+      </c>
+      <c r="E46" s="42">
+        <v>58.734000000000002</v>
+      </c>
+      <c r="F46" s="41">
+        <v>4.7950999999999997</v>
+      </c>
+      <c r="G46" s="41">
+        <v>56.237400000000001</v>
+      </c>
+      <c r="H46" s="41">
+        <v>85.620199999999997</v>
+      </c>
+      <c r="I46" s="42">
+        <v>200.30240000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B47" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="C47" s="21">
+        <v>60.453600000000002</v>
+      </c>
+      <c r="D47" s="19">
+        <v>62.313899999999997</v>
+      </c>
+      <c r="E47" s="20">
+        <v>58.503900000000002</v>
+      </c>
+      <c r="F47" s="19">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G47" s="19">
+        <v>56.981699999999996</v>
+      </c>
+      <c r="H47" s="19">
+        <v>84.837000000000003</v>
+      </c>
+      <c r="I47" s="20">
+        <v>184.30279999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B48" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="C48" s="32">
+        <v>73.817700000000002</v>
+      </c>
+      <c r="D48" s="33">
+        <v>78.006500000000003</v>
+      </c>
+      <c r="E48" s="34">
+        <v>69.775199999999998</v>
+      </c>
+      <c r="F48" s="33">
+        <v>1.5906</v>
+      </c>
+      <c r="G48" s="33">
+        <v>11.3081</v>
+      </c>
+      <c r="H48" s="33">
+        <v>13.5883</v>
+      </c>
+      <c r="I48" s="34">
+        <v>40.041699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B49" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="C49" s="21">
+        <v>60.139699999999998</v>
+      </c>
+      <c r="D49" s="19">
+        <v>62.335500000000003</v>
+      </c>
+      <c r="E49" s="20">
+        <v>58.242400000000004</v>
+      </c>
+      <c r="F49" s="19">
+        <v>4.4614000000000003</v>
+      </c>
+      <c r="G49" s="19">
+        <v>56.219000000000001</v>
+      </c>
+      <c r="H49" s="19">
+        <v>73.756399999999999</v>
+      </c>
+      <c r="I49" s="20">
+        <v>168.7637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="C50" s="21">
+        <v>64.418300000000002</v>
+      </c>
+      <c r="D50" s="19">
+        <v>66.121799999999993</v>
+      </c>
+      <c r="E50" s="20">
+        <v>62.713299999999997</v>
+      </c>
+      <c r="F50" s="19">
+        <v>4.2478999999999996</v>
+      </c>
+      <c r="G50" s="19">
+        <v>32.496299999999998</v>
+      </c>
+      <c r="H50" s="19">
+        <v>49.044600000000003</v>
+      </c>
+      <c r="I50" s="20">
+        <v>146.13999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B51" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="C51" s="15">
+        <v>64.308899999999994</v>
+      </c>
+      <c r="D51" s="16">
+        <v>66.671499999999995</v>
+      </c>
+      <c r="E51" s="17">
+        <v>62.028199999999998</v>
+      </c>
+      <c r="F51" s="16">
+        <v>3.5413999999999999</v>
+      </c>
+      <c r="G51" s="16">
+        <v>33.508600000000001</v>
+      </c>
+      <c r="H51" s="16">
+        <v>45.541499999999999</v>
+      </c>
+      <c r="I51" s="17">
+        <v>150.0573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B52" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="C52" s="21">
+        <v>59.349899999999998</v>
+      </c>
+      <c r="D52" s="19">
+        <v>60.654499999999999</v>
+      </c>
+      <c r="E52" s="20">
+        <v>57.962699999999998</v>
+      </c>
+      <c r="F52" s="19">
+        <v>4.4889000000000001</v>
+      </c>
+      <c r="G52" s="19">
+        <v>69.741100000000003</v>
+      </c>
+      <c r="H52" s="19">
+        <v>100.28879999999999</v>
+      </c>
+      <c r="I52" s="20">
+        <v>210.0213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B53" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="C53" s="21">
+        <v>61.343000000000004</v>
+      </c>
+      <c r="D53" s="19">
+        <v>63.683999999999997</v>
+      </c>
+      <c r="E53" s="20">
+        <v>58.872100000000003</v>
+      </c>
+      <c r="F53" s="19">
+        <v>4.0754000000000001</v>
+      </c>
+      <c r="G53" s="19">
+        <v>53.5839</v>
+      </c>
+      <c r="H53" s="19">
+        <v>77.043499999999995</v>
+      </c>
+      <c r="I53" s="20">
+        <v>161.452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B54" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="C54" s="21">
+        <v>61.267200000000003</v>
+      </c>
+      <c r="D54" s="19">
+        <v>62.624099999999999</v>
+      </c>
+      <c r="E54" s="20">
+        <v>59.905099999999997</v>
+      </c>
+      <c r="F54" s="19">
+        <v>4.1736000000000004</v>
+      </c>
+      <c r="G54" s="19">
+        <v>60.216700000000003</v>
+      </c>
+      <c r="H54" s="19">
+        <v>77.164299999999997</v>
+      </c>
+      <c r="I54" s="20">
+        <v>157.40360000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B55" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="C55" s="21">
+        <v>58.857700000000001</v>
+      </c>
+      <c r="D55" s="19">
+        <v>60.315899999999999</v>
+      </c>
+      <c r="E55" s="20">
+        <v>57.464100000000002</v>
+      </c>
+      <c r="F55" s="19">
+        <v>5.85</v>
+      </c>
+      <c r="G55" s="19">
+        <v>65.451800000000006</v>
+      </c>
+      <c r="H55" s="19">
+        <v>100.06189999999999</v>
+      </c>
+      <c r="I55" s="20">
+        <v>201.2938</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B56" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="C56" s="21">
+        <v>59.890300000000003</v>
+      </c>
+      <c r="D56" s="19">
+        <v>61.0184</v>
+      </c>
+      <c r="E56" s="20">
+        <v>58.796500000000002</v>
+      </c>
+      <c r="F56" s="19">
+        <v>6.3685</v>
+      </c>
+      <c r="G56" s="19">
+        <v>66.545500000000004</v>
+      </c>
+      <c r="H56" s="19">
+        <v>120.72709999999999</v>
+      </c>
+      <c r="I56" s="20">
+        <v>193.34970000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B57" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="C57" s="21">
+        <v>53.072400000000002</v>
+      </c>
+      <c r="D57" s="19">
+        <v>53.432400000000001</v>
+      </c>
+      <c r="E57" s="20">
+        <v>52.707299999999996</v>
+      </c>
+      <c r="F57" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="G57" s="19">
+        <v>74.698999999999998</v>
+      </c>
+      <c r="H57" s="19">
+        <v>113.73990000000001</v>
+      </c>
+      <c r="I57" s="20">
+        <v>287.74990000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B58" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="C58" s="21">
+        <v>67.496099999999998</v>
+      </c>
+      <c r="D58" s="19">
+        <v>69.693200000000004</v>
+      </c>
+      <c r="E58" s="20">
+        <v>65.4846</v>
+      </c>
+      <c r="F58" s="19">
+        <v>4.0031999999999996</v>
+      </c>
+      <c r="G58" s="19">
+        <v>27.058900000000001</v>
+      </c>
+      <c r="H58" s="19">
+        <v>40.238</v>
+      </c>
+      <c r="I58" s="20">
+        <v>96.696799999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B59" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="C59" s="21">
+        <v>59.6935</v>
+      </c>
+      <c r="D59" s="19">
+        <v>61.202399999999997</v>
+      </c>
+      <c r="E59" s="20">
+        <v>58.185600000000001</v>
+      </c>
+      <c r="F59" s="19">
+        <v>4.0804999999999998</v>
+      </c>
+      <c r="G59" s="19">
+        <v>78.760499999999993</v>
+      </c>
+      <c r="H59" s="19">
+        <v>108.4038</v>
+      </c>
+      <c r="I59" s="20">
+        <v>185.35550000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B60" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="C60" s="23">
+        <v>61.122500000000002</v>
+      </c>
+      <c r="D60" s="24">
+        <v>61.445</v>
+      </c>
+      <c r="E60" s="25">
+        <v>60.781100000000002</v>
+      </c>
+      <c r="F60" s="24">
+        <v>4.3863000000000003</v>
+      </c>
+      <c r="G60" s="24">
+        <v>45.132300000000001</v>
+      </c>
+      <c r="H60" s="24">
+        <v>64.434100000000001</v>
+      </c>
+      <c r="I60" s="25">
+        <v>173.8109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="C61" s="28">
+        <v>61.692320000000002</v>
+      </c>
+      <c r="D61" s="29">
+        <v>63.405847000000001</v>
+      </c>
+      <c r="E61" s="30">
+        <v>60.010407000000001</v>
+      </c>
+      <c r="F61" s="29">
+        <v>4.3468530000000003</v>
+      </c>
+      <c r="G61" s="29">
+        <v>52.529387</v>
+      </c>
+      <c r="H61" s="29">
+        <v>76.965959999999995</v>
+      </c>
+      <c r="I61" s="30">
+        <v>170.44942699999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28" t="s">
+      <c r="C62" s="50">
+        <v>63.853887</v>
+      </c>
+      <c r="D62" s="51">
+        <v>66.277146000000002</v>
+      </c>
+      <c r="E62" s="52">
+        <v>61.521766999999997</v>
+      </c>
+      <c r="F62" s="51">
+        <v>4.0473610000000004</v>
+      </c>
+      <c r="G62" s="51">
+        <v>41.531112999999998</v>
+      </c>
+      <c r="H62" s="51">
+        <v>58.856819999999999</v>
+      </c>
+      <c r="I62" s="52">
+        <v>143.72878900000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="48"/>
+      <c r="B63" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50" t="s">
+      <c r="C63" s="50">
+        <v>74.760540000000006</v>
+      </c>
+      <c r="D63" s="51">
+        <v>77.786355</v>
+      </c>
+      <c r="E63" s="52">
+        <v>71.887906000000001</v>
+      </c>
+      <c r="F63" s="51">
+        <v>2.0089320000000002</v>
+      </c>
+      <c r="G63" s="51">
+        <v>12.162378</v>
+      </c>
+      <c r="H63" s="51">
+        <v>14.903006</v>
+      </c>
+      <c r="I63" s="52">
+        <v>46.899082</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="53"/>
+      <c r="B64" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50" t="s">
+      <c r="C64" s="55">
+        <v>72.751469999999998</v>
+      </c>
+      <c r="D64" s="56">
+        <v>76.212378999999999</v>
+      </c>
+      <c r="E64" s="57">
+        <v>69.528578999999993</v>
+      </c>
+      <c r="F64" s="56">
+        <v>1.9008609999999999</v>
+      </c>
+      <c r="G64" s="56">
+        <v>14.861041999999999</v>
+      </c>
+      <c r="H64" s="56">
+        <v>18.049005999999999</v>
+      </c>
+      <c r="I64" s="57">
+        <v>58.495266999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="B65" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55" t="s">
+      <c r="C65" s="59">
+        <v>71.276003000000003</v>
+      </c>
+      <c r="D65" s="60">
+        <v>74.104496999999995</v>
+      </c>
+      <c r="E65" s="61">
+        <v>68.585463000000004</v>
+      </c>
+      <c r="F65" s="60">
+        <v>2.5222829999999998</v>
+      </c>
+      <c r="G65" s="60">
+        <v>21.529433000000001</v>
+      </c>
+      <c r="H65" s="60">
+        <v>26.709212999999998</v>
+      </c>
+      <c r="I65" s="61">
+        <v>66.018102999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="53"/>
+      <c r="B66" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="59" t="s">
+      <c r="C66" s="63">
+        <v>71.708937000000006</v>
+      </c>
+      <c r="D66" s="64">
+        <v>74.566162000000006</v>
+      </c>
+      <c r="E66" s="65">
+        <v>68.987536000000006</v>
+      </c>
+      <c r="F66" s="64">
+        <v>2.5792700000000002</v>
+      </c>
+      <c r="G66" s="64">
+        <v>20.379536999999999</v>
+      </c>
+      <c r="H66" s="64">
+        <v>27.200963999999999</v>
+      </c>
+      <c r="I66" s="65">
+        <v>73.991332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="53"/>
+      <c r="B67" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="63" t="s">
+      <c r="C67" s="59">
+        <v>65.794494999999998</v>
+      </c>
+      <c r="D67" s="60">
+        <v>68.519932999999995</v>
+      </c>
+      <c r="E67" s="61">
+        <v>63.196047999999998</v>
+      </c>
+      <c r="F67" s="60">
+        <v>3.7753950000000001</v>
+      </c>
+      <c r="G67" s="60">
+        <v>33.500452000000003</v>
+      </c>
+      <c r="H67" s="60">
+        <v>46.757952000000003</v>
+      </c>
+      <c r="I67" s="61">
+        <v>123.830505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="53"/>
+      <c r="B68" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="59" t="s">
+      <c r="C68" s="59">
+        <v>62.809627999999996</v>
+      </c>
+      <c r="D68" s="60">
+        <v>64.832740000000001</v>
+      </c>
+      <c r="E68" s="61">
+        <v>60.872072000000003</v>
+      </c>
+      <c r="F68" s="60">
+        <v>4.3270759999999999</v>
+      </c>
+      <c r="G68" s="60">
+        <v>46.977772000000002</v>
+      </c>
+      <c r="H68" s="60">
+        <v>68.634816000000001</v>
+      </c>
+      <c r="I68" s="61">
+        <v>158.63559599999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="53"/>
+      <c r="B69" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="59" t="s">
+      <c r="C69" s="59">
+        <v>63.196542999999998</v>
+      </c>
+      <c r="D69" s="60">
+        <v>65.752471</v>
+      </c>
+      <c r="E69" s="61">
+        <v>60.651913999999998</v>
+      </c>
+      <c r="F69" s="60">
+        <v>4.6059570000000001</v>
+      </c>
+      <c r="G69" s="60">
+        <v>40.351157000000001</v>
+      </c>
+      <c r="H69" s="60">
+        <v>58.714728999999998</v>
+      </c>
+      <c r="I69" s="61">
+        <v>154.54825700000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="53"/>
+      <c r="B70" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="59" t="s">
+      <c r="C70" s="59">
+        <v>61.818364000000003</v>
+      </c>
+      <c r="D70" s="60">
+        <v>64.270718000000002</v>
+      </c>
+      <c r="E70" s="61">
+        <v>59.494936000000003</v>
+      </c>
+      <c r="F70" s="60">
+        <v>4.9056090000000001</v>
+      </c>
+      <c r="G70" s="60">
+        <v>46.584254999999999</v>
+      </c>
+      <c r="H70" s="60">
+        <v>66.726090999999997</v>
+      </c>
+      <c r="I70" s="61">
+        <v>165.637845</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="53"/>
+      <c r="B71" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="59" t="s">
+      <c r="C71" s="59">
+        <v>61.692320000000002</v>
+      </c>
+      <c r="D71" s="60">
+        <v>63.405847000000001</v>
+      </c>
+      <c r="E71" s="61">
+        <v>60.010407000000001</v>
+      </c>
+      <c r="F71" s="60">
+        <v>4.3468530000000003</v>
+      </c>
+      <c r="G71" s="60">
+        <v>52.529387</v>
+      </c>
+      <c r="H71" s="60">
+        <v>76.965959999999995</v>
+      </c>
+      <c r="I71" s="61">
+        <v>170.44942699999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="53"/>
+      <c r="B72" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="59" t="s">
+      <c r="C72" s="59">
+        <v>62.577271000000003</v>
+      </c>
+      <c r="D72" s="60">
+        <v>65.382042999999996</v>
+      </c>
+      <c r="E72" s="61">
+        <v>59.894742999999998</v>
+      </c>
+      <c r="F72" s="60">
+        <v>4.3084709999999999</v>
+      </c>
+      <c r="G72" s="60">
+        <v>44.871428999999999</v>
+      </c>
+      <c r="H72" s="60">
+        <v>66.519570999999999</v>
+      </c>
+      <c r="I72" s="61">
+        <v>165.24492900000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="53"/>
+      <c r="B73" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="59" t="s">
+      <c r="C73" s="59">
+        <v>64.430093999999997</v>
+      </c>
+      <c r="D73" s="60">
+        <v>67.331886999999995</v>
+      </c>
+      <c r="E73" s="61">
+        <v>61.597774999999999</v>
+      </c>
+      <c r="F73" s="60">
+        <v>3.709244</v>
+      </c>
+      <c r="G73" s="60">
+        <v>37.513044000000001</v>
+      </c>
+      <c r="H73" s="60">
+        <v>50.596361999999999</v>
+      </c>
+      <c r="I73" s="61">
+        <v>133.51466300000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="53"/>
+      <c r="B74" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="59" t="s">
+      <c r="C74" s="59">
+        <v>72.115099999999998</v>
+      </c>
+      <c r="D74" s="60">
+        <v>74.600440000000006</v>
+      </c>
+      <c r="E74" s="61">
+        <v>69.862279999999998</v>
+      </c>
+      <c r="F74" s="60">
+        <v>2.9358399999999998</v>
+      </c>
+      <c r="G74" s="60">
+        <v>17.905460000000001</v>
+      </c>
+      <c r="H74" s="60">
+        <v>21.696059999999999</v>
+      </c>
+      <c r="I74" s="61">
+        <v>52.838479999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="53"/>
+      <c r="B75" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="59" t="s">
+      <c r="C75" s="66">
+        <v>65.529300000000006</v>
+      </c>
+      <c r="D75" s="67">
+        <v>68.736540000000005</v>
+      </c>
+      <c r="E75" s="68">
+        <v>62.397039999999997</v>
+      </c>
+      <c r="F75" s="67">
+        <v>3.9645800000000002</v>
+      </c>
+      <c r="G75" s="67">
+        <v>37.205060000000003</v>
+      </c>
+      <c r="H75" s="67">
+        <v>49.795819999999999</v>
+      </c>
+      <c r="I75" s="68">
+        <v>116.24852</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="53"/>
+      <c r="B76" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="59" t="s">
+      <c r="C76" s="70">
+        <v>73.147049999999993</v>
+      </c>
+      <c r="D76" s="71">
+        <v>76.151929999999993</v>
+      </c>
+      <c r="E76" s="72">
+        <v>70.24042</v>
+      </c>
+      <c r="F76" s="71">
+        <v>1.9312400000000001</v>
+      </c>
+      <c r="G76" s="71">
+        <v>17.067959999999999</v>
+      </c>
+      <c r="H76" s="71">
+        <v>21.325140000000001</v>
+      </c>
+      <c r="I76" s="72">
+        <v>61.522640000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="53"/>
+      <c r="B77" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="69"/>
-      <c r="J75" s="69"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="70" t="s">
+      <c r="C77" s="59">
+        <v>73.315568999999996</v>
+      </c>
+      <c r="D77" s="60">
+        <v>76.932708000000005</v>
+      </c>
+      <c r="E77" s="61">
+        <v>69.983208000000005</v>
+      </c>
+      <c r="F77" s="60">
+        <v>2.0021689999999999</v>
+      </c>
+      <c r="G77" s="60">
+        <v>14.016431000000001</v>
+      </c>
+      <c r="H77" s="60">
+        <v>17.078807999999999</v>
+      </c>
+      <c r="I77" s="61">
+        <v>58.205376999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="53"/>
+      <c r="B78" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="59" t="s">
+      <c r="C78" s="59">
+        <v>79.633088999999998</v>
+      </c>
+      <c r="D78" s="60">
+        <v>82.534414999999996</v>
+      </c>
+      <c r="E78" s="61">
+        <v>76.711022</v>
+      </c>
+      <c r="F78" s="60">
+        <v>1.5044850000000001</v>
+      </c>
+      <c r="G78" s="60">
+        <v>3.2153109999999998</v>
+      </c>
+      <c r="H78" s="60">
+        <v>3.8573740000000001</v>
+      </c>
+      <c r="I78" s="61">
+        <v>18.767437000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="53"/>
+      <c r="B79" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="59" t="s">
+      <c r="C79" s="63">
+        <v>80.199511000000001</v>
+      </c>
+      <c r="D79" s="64">
+        <v>82.917411000000001</v>
+      </c>
+      <c r="E79" s="65">
+        <v>77.464911000000001</v>
+      </c>
+      <c r="F79" s="64">
+        <v>1.5554969999999999</v>
+      </c>
+      <c r="G79" s="64">
+        <v>3.7798660000000002</v>
+      </c>
+      <c r="H79" s="64">
+        <v>4.5191840000000001</v>
+      </c>
+      <c r="I79" s="65">
+        <v>21.440832</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="53"/>
+      <c r="B80" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="63" t="s">
+      <c r="C80" s="70">
+        <v>65.370710000000003</v>
+      </c>
+      <c r="D80" s="71">
+        <v>67.877110000000002</v>
+      </c>
+      <c r="E80" s="72">
+        <v>63.02937</v>
+      </c>
+      <c r="F80" s="71">
+        <v>4.0334500000000002</v>
+      </c>
+      <c r="G80" s="71">
+        <v>38.131610000000002</v>
+      </c>
+      <c r="H80" s="71">
+        <v>53.389980000000001</v>
+      </c>
+      <c r="I80" s="72">
+        <v>126.74251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="53"/>
+      <c r="B81" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="70" t="s">
+      <c r="C81" s="59">
+        <v>72.9238</v>
+      </c>
+      <c r="D81" s="60">
+        <v>75.944440999999998</v>
+      </c>
+      <c r="E81" s="61">
+        <v>70.217885999999993</v>
+      </c>
+      <c r="F81" s="60">
+        <v>2.4002270000000001</v>
+      </c>
+      <c r="G81" s="60">
+        <v>15.245932</v>
+      </c>
+      <c r="H81" s="60">
+        <v>18.627981999999999</v>
+      </c>
+      <c r="I81" s="61">
+        <v>55.701436000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="53"/>
+      <c r="B82" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="73"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="59" t="s">
+      <c r="C82" s="59">
+        <v>63.509155</v>
+      </c>
+      <c r="D82" s="60">
+        <v>65.913517999999996</v>
+      </c>
+      <c r="E82" s="61">
+        <v>61.179130000000001</v>
+      </c>
+      <c r="F82" s="60">
+        <v>4.0505230000000001</v>
+      </c>
+      <c r="G82" s="60">
+        <v>42.303727000000002</v>
+      </c>
+      <c r="H82" s="60">
+        <v>60.099283999999997</v>
+      </c>
+      <c r="I82" s="61">
+        <v>147.58930699999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="53"/>
+      <c r="B83" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="62"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="59" t="s">
+      <c r="C83" s="63">
+        <v>75.105908999999997</v>
+      </c>
+      <c r="D83" s="64">
+        <v>78.132696999999993</v>
+      </c>
+      <c r="E83" s="65">
+        <v>72.201926999999998</v>
+      </c>
+      <c r="F83" s="64">
+        <v>1.9353560000000001</v>
+      </c>
+      <c r="G83" s="64">
+        <v>11.582565000000001</v>
+      </c>
+      <c r="H83" s="64">
+        <v>14.202583000000001</v>
+      </c>
+      <c r="I83" s="65">
+        <v>45.243938</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="53"/>
+      <c r="B84" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="62"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
-      <c r="B83" s="63" t="s">
+      <c r="C84" s="70">
+        <v>61.106838000000003</v>
+      </c>
+      <c r="D84" s="71">
+        <v>63.230829</v>
+      </c>
+      <c r="E84" s="72">
+        <v>58.975110000000001</v>
+      </c>
+      <c r="F84" s="71">
+        <v>4.8589710000000004</v>
+      </c>
+      <c r="G84" s="71">
+        <v>52.451348000000003</v>
+      </c>
+      <c r="H84" s="71">
+        <v>77.187585999999996</v>
+      </c>
+      <c r="I84" s="72">
+        <v>178.07522399999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="53"/>
+      <c r="B85" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="70" t="s">
+      <c r="C85" s="59">
+        <v>68.153925000000001</v>
+      </c>
+      <c r="D85" s="60">
+        <v>71.240075000000004</v>
+      </c>
+      <c r="E85" s="61">
+        <v>65.202100000000002</v>
+      </c>
+      <c r="F85" s="60">
+        <v>3.6008749999999998</v>
+      </c>
+      <c r="G85" s="60">
+        <v>28.346025000000001</v>
+      </c>
+      <c r="H85" s="60">
+        <v>36.520699999999998</v>
+      </c>
+      <c r="I85" s="61">
+        <v>98.088025000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="53"/>
+      <c r="B86" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="71"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="73"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="74" t="s">
+      <c r="C86" s="59">
+        <v>63.855665000000002</v>
+      </c>
+      <c r="D86" s="60">
+        <v>66.255413000000004</v>
+      </c>
+      <c r="E86" s="61">
+        <v>61.554743000000002</v>
+      </c>
+      <c r="F86" s="60">
+        <v>3.8390300000000002</v>
+      </c>
+      <c r="G86" s="60">
+        <v>38.987191000000003</v>
+      </c>
+      <c r="H86" s="60">
+        <v>53.827035000000002</v>
+      </c>
+      <c r="I86" s="61">
+        <v>138.21872200000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="53"/>
+      <c r="B87" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="59" t="s">
+      <c r="C87" s="59">
+        <v>69.544984999999997</v>
+      </c>
+      <c r="D87" s="60">
+        <v>72.335569000000007</v>
+      </c>
+      <c r="E87" s="61">
+        <v>66.961314999999999</v>
+      </c>
+      <c r="F87" s="60">
+        <v>2.6778770000000001</v>
+      </c>
+      <c r="G87" s="60">
+        <v>25.139462000000002</v>
+      </c>
+      <c r="H87" s="60">
+        <v>31.226073</v>
+      </c>
+      <c r="I87" s="61">
+        <v>75.049581000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="53"/>
+      <c r="B88" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="62"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="59" t="s">
+      <c r="C88" s="59">
+        <v>69.515749999999997</v>
+      </c>
+      <c r="D88" s="60">
+        <v>72.407488000000001</v>
+      </c>
+      <c r="E88" s="61">
+        <v>66.825675000000004</v>
+      </c>
+      <c r="F88" s="60">
+        <v>2.7149999999999999</v>
+      </c>
+      <c r="G88" s="60">
+        <v>24.516649999999998</v>
+      </c>
+      <c r="H88" s="60">
+        <v>31.786438</v>
+      </c>
+      <c r="I88" s="61">
+        <v>81.709325000000007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="53"/>
+      <c r="B89" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="59" t="s">
+      <c r="C89" s="59">
+        <v>72.575996000000004</v>
+      </c>
+      <c r="D89" s="60">
+        <v>76.085099999999997</v>
+      </c>
+      <c r="E89" s="61">
+        <v>69.261442000000002</v>
+      </c>
+      <c r="F89" s="60">
+        <v>2.0161929999999999</v>
+      </c>
+      <c r="G89" s="60">
+        <v>12.554542</v>
+      </c>
+      <c r="H89" s="60">
+        <v>15.177231000000001</v>
+      </c>
+      <c r="I89" s="61">
+        <v>52.005361999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="53"/>
+      <c r="B90" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="62"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="59" t="s">
+      <c r="C90" s="63">
+        <v>78.855183999999994</v>
+      </c>
+      <c r="D90" s="64">
+        <v>81.639127000000002</v>
+      </c>
+      <c r="E90" s="65">
+        <v>76.186674999999994</v>
+      </c>
+      <c r="F90" s="64">
+        <v>1.634298</v>
+      </c>
+      <c r="G90" s="64">
+        <v>5.5469689999999998</v>
+      </c>
+      <c r="H90" s="64">
+        <v>6.6632170000000004</v>
+      </c>
+      <c r="I90" s="65">
+        <v>28.223603000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="53"/>
+      <c r="B91" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="62"/>
-      <c r="J89" s="62"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
-      <c r="B90" s="63" t="s">
+      <c r="C91" s="70">
+        <v>61.916983999999999</v>
+      </c>
+      <c r="D91" s="71">
+        <v>64.132253000000006</v>
+      </c>
+      <c r="E91" s="72">
+        <v>59.719740999999999</v>
+      </c>
+      <c r="F91" s="71">
+        <v>4.645937</v>
+      </c>
+      <c r="G91" s="71">
+        <v>49.748477999999999</v>
+      </c>
+      <c r="H91" s="71">
+        <v>71.787316000000004</v>
+      </c>
+      <c r="I91" s="72">
+        <v>167.51234700000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="53"/>
+      <c r="B92" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="70" t="s">
+      <c r="C92" s="59">
+        <v>67.078158000000002</v>
+      </c>
+      <c r="D92" s="60">
+        <v>69.669442000000004</v>
+      </c>
+      <c r="E92" s="61">
+        <v>64.618508000000006</v>
+      </c>
+      <c r="F92" s="60">
+        <v>3.1259999999999999</v>
+      </c>
+      <c r="G92" s="60">
+        <v>32.669783000000002</v>
+      </c>
+      <c r="H92" s="60">
+        <v>41.004567000000002</v>
+      </c>
+      <c r="I92" s="61">
+        <v>100.751575</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="53"/>
+      <c r="B93" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="73"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="59" t="s">
+      <c r="C93" s="59">
+        <v>69.607332999999997</v>
+      </c>
+      <c r="D93" s="60">
+        <v>73.120249999999999</v>
+      </c>
+      <c r="E93" s="61">
+        <v>66.466866999999993</v>
+      </c>
+      <c r="F93" s="60">
+        <v>2.8630330000000002</v>
+      </c>
+      <c r="G93" s="60">
+        <v>24.371732999999999</v>
+      </c>
+      <c r="H93" s="60">
+        <v>31.462050000000001</v>
+      </c>
+      <c r="I93" s="61">
+        <v>82.234532999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="53"/>
+      <c r="B94" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="62"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="59" t="s">
+      <c r="C94" s="59">
+        <v>70.736464999999995</v>
+      </c>
+      <c r="D94" s="60">
+        <v>73.781468000000004</v>
+      </c>
+      <c r="E94" s="61">
+        <v>67.984142000000006</v>
+      </c>
+      <c r="F94" s="60">
+        <v>2.344039</v>
+      </c>
+      <c r="G94" s="60">
+        <v>18.743051999999999</v>
+      </c>
+      <c r="H94" s="60">
+        <v>23.040310000000002</v>
+      </c>
+      <c r="I94" s="61">
+        <v>70.283713000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="53"/>
+      <c r="B95" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="62"/>
-      <c r="J93" s="62"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="59" t="s">
+      <c r="C95" s="59">
+        <v>60.948256000000001</v>
+      </c>
+      <c r="D95" s="60">
+        <v>63.423844000000003</v>
+      </c>
+      <c r="E95" s="61">
+        <v>58.465350000000001</v>
+      </c>
+      <c r="F95" s="60">
+        <v>4.4850120000000002</v>
+      </c>
+      <c r="G95" s="60">
+        <v>48.950443999999997</v>
+      </c>
+      <c r="H95" s="60">
+        <v>71.950299999999999</v>
+      </c>
+      <c r="I95" s="61">
+        <v>177.01191900000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="53"/>
+      <c r="B96" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="62"/>
-      <c r="J94" s="62"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="59" t="s">
+      <c r="C96" s="63">
+        <v>69.352175000000003</v>
+      </c>
+      <c r="D96" s="64">
+        <v>72.877806000000007</v>
+      </c>
+      <c r="E96" s="65">
+        <v>66.006755999999996</v>
+      </c>
+      <c r="F96" s="64">
+        <v>2.5847690000000001</v>
+      </c>
+      <c r="G96" s="64">
+        <v>20.811775000000001</v>
+      </c>
+      <c r="H96" s="64">
+        <v>25.691962</v>
+      </c>
+      <c r="I96" s="65">
+        <v>70.042738</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="53"/>
+      <c r="B97" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="62"/>
-      <c r="J95" s="62"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="54"/>
-      <c r="B96" s="63" t="s">
+      <c r="C97" s="70">
+        <v>62.113503000000001</v>
+      </c>
+      <c r="D97" s="71">
+        <v>64.349259000000004</v>
+      </c>
+      <c r="E97" s="72">
+        <v>59.927562000000002</v>
+      </c>
+      <c r="F97" s="71">
+        <v>4.5067510000000004</v>
+      </c>
+      <c r="G97" s="71">
+        <v>47.941668999999997</v>
+      </c>
+      <c r="H97" s="71">
+        <v>68.851477000000003</v>
+      </c>
+      <c r="I97" s="72">
+        <v>162.53026700000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="53"/>
+      <c r="B98" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="66"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="70" t="s">
+      <c r="C98" s="63">
+        <v>69.067643000000004</v>
+      </c>
+      <c r="D98" s="64">
+        <v>71.876289999999997</v>
+      </c>
+      <c r="E98" s="65">
+        <v>66.396570999999994</v>
+      </c>
+      <c r="F98" s="64">
+        <v>2.9005380000000001</v>
+      </c>
+      <c r="G98" s="64">
+        <v>27.671247999999999</v>
+      </c>
+      <c r="H98" s="64">
+        <v>34.446738000000003</v>
+      </c>
+      <c r="I98" s="65">
+        <v>83.401538000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="74"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="73"/>
-      <c r="J97" s="73"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="63" t="s">
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="68"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="77"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="77"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="78"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="77"/>
-      <c r="J107" s="77"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="2"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="77"/>
-      <c r="J108" s="77"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="80"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="79"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{31261F6D-477A-4526-86B1-AA7D6268BC6E}"/>
-    <hyperlink ref="B109" r:id="rId2" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CED08B88-05E4-495B-AB3A-8A9E58100FE4}"/>
-    <hyperlink ref="B110" r:id="rId3" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7493369C-E791-4A3E-B228-2CF5921BAB6B}"/>
-    <hyperlink ref="B107" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{AEE9A54A-36BC-4C02-84E8-939FAB6E0C8F}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{A01B91BB-FDBE-480C-B541-74ABC118539E}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{A0AFB74A-AB86-4987-B895-A83E59ADB460}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B4082CA0-3DFF-42E0-A0F1-65D11F686F7B}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{C8746B29-A187-4F0A-B03E-BC7C6304676C}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{17A72D0A-6E0C-4662-A6E8-3F42FEB5D820}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{CBE51A40-E532-4865-9FF9-B0094FB18F10}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{6D941D87-3EC6-4B73-936D-49B2DA8546C3}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{48127E9D-53F3-44E3-987D-603A650906D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab25.xlsx
+++ b/AfDD_2025_Annex_Table_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E0AEAC-6B39-41AD-B249-3E5C3B8E7FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FB93DAA-A292-4777-B969-AFCE929582BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34365" yWindow="-1140" windowWidth="19410" windowHeight="20985" xr2:uid="{851BD74B-1F93-4937-832E-FECF60F92A54}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{39E3B7D9-A2F7-4F39-9473-E9BC2650BC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division, Global Hunger Index from Welthungerhilfe and Concern Worldwide (2023 edition).</t>
@@ -1437,25 +1437,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDC0E92-0D80-49B0-8761-11555A71841A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA855E20-124D-48C8-9154-99EAEA6E0287}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="14.42578125" style="80" customWidth="1"/>
-    <col min="10" max="25" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="14.453125" style="80" customWidth="1"/>
+    <col min="10" max="25" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1467,7 +1465,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1525,7 +1523,7 @@
         <v>147.90090000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1554,7 +1552,7 @@
         <v>92.980800000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1583,7 +1581,7 @@
         <v>167.80160000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1612,7 +1610,7 @@
         <v>240.52119999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1641,7 +1639,7 @@
         <v>117.4218</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>153.31010000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1699,7 +1697,7 @@
         <v>126.50790000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
@@ -1728,7 +1726,7 @@
         <v>119.5367</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1757,7 +1755,7 @@
         <v>134.41220000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -1786,7 +1784,7 @@
         <v>152.89230000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>30</v>
@@ -1813,7 +1811,7 @@
         <v>145.32855000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -1842,7 +1840,7 @@
         <v>169.4486</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -1871,7 +1869,7 @@
         <v>159.68340000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -1900,7 +1898,7 @@
         <v>305.214</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
@@ -1929,7 +1927,7 @@
         <v>285.97460000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1958,7 +1956,7 @@
         <v>119.1755</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -1987,7 +1985,7 @@
         <v>195.47370000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
@@ -2016,7 +2014,7 @@
         <v>155.00360000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>45</v>
       </c>
@@ -2045,7 +2043,7 @@
         <v>101.3399</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
@@ -2074,7 +2072,7 @@
         <v>78.537899999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>49</v>
@@ -2101,7 +2099,7 @@
         <v>174.42791099999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>50</v>
       </c>
@@ -2130,7 +2128,7 @@
         <v>107.7166</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>52</v>
       </c>
@@ -2159,7 +2157,7 @@
         <v>148.74199999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
@@ -2188,7 +2186,7 @@
         <v>120.1943</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>56</v>
       </c>
@@ -2217,7 +2215,7 @@
         <v>133.28200000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>58</v>
       </c>
@@ -2246,7 +2244,7 @@
         <v>154.11519999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
@@ -2275,7 +2273,7 @@
         <v>164.59479999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
@@ -2304,7 +2302,7 @@
         <v>49.871299999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>64</v>
       </c>
@@ -2333,7 +2331,7 @@
         <v>104.2642</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
@@ -2362,7 +2360,7 @@
         <v>55.787700000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
@@ -2391,7 +2389,7 @@
         <v>234.78659999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>70</v>
       </c>
@@ -2420,7 +2418,7 @@
         <v>231.3733</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>72</v>
       </c>
@@ -2449,7 +2447,7 @@
         <v>136.7576</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>74</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v>109.505</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>76</v>
       </c>
@@ -2507,7 +2505,7 @@
         <v>117.65779999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>78</v>
@@ -2534,7 +2532,7 @@
         <v>133.474886</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>79</v>
       </c>
@@ -2563,7 +2561,7 @@
         <v>45.62</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>81</v>
       </c>
@@ -2592,7 +2590,7 @@
         <v>48.6357</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>83</v>
       </c>
@@ -2621,7 +2619,7 @@
         <v>49.2806</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>85</v>
       </c>
@@ -2650,7 +2648,7 @@
         <v>91.715000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>87</v>
       </c>
@@ -2679,7 +2677,7 @@
         <v>40.272799999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>89</v>
       </c>
@@ -2708,7 +2706,7 @@
         <v>37.304000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>91</v>
@@ -2735,7 +2733,7 @@
         <v>52.138016999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>92</v>
       </c>
@@ -2764,7 +2762,7 @@
         <v>200.30240000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>94</v>
       </c>
@@ -2793,7 +2791,7 @@
         <v>184.30279999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>96</v>
       </c>
@@ -2822,7 +2820,7 @@
         <v>40.041699999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>98</v>
       </c>
@@ -2851,7 +2849,7 @@
         <v>168.7637</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>100</v>
       </c>
@@ -2880,7 +2878,7 @@
         <v>146.13999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>102</v>
       </c>
@@ -2909,7 +2907,7 @@
         <v>150.0573</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>104</v>
       </c>
@@ -2938,7 +2936,7 @@
         <v>210.0213</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>106</v>
       </c>
@@ -2967,7 +2965,7 @@
         <v>161.452</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>108</v>
       </c>
@@ -2996,7 +2994,7 @@
         <v>157.40360000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>110</v>
       </c>
@@ -3025,7 +3023,7 @@
         <v>201.2938</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>112</v>
       </c>
@@ -3054,7 +3052,7 @@
         <v>193.34970000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>114</v>
       </c>
@@ -3083,7 +3081,7 @@
         <v>287.74990000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>116</v>
       </c>
@@ -3112,7 +3110,7 @@
         <v>96.696799999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>118</v>
       </c>
@@ -3141,7 +3139,7 @@
         <v>185.35550000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>120</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>173.8109</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>122</v>
@@ -3197,7 +3195,7 @@
         <v>170.44942699999999</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>123</v>
@@ -3224,7 +3222,7 @@
         <v>143.72878900000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>124</v>
@@ -3251,7 +3249,7 @@
         <v>46.899082</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>125</v>
@@ -3278,7 +3276,7 @@
         <v>58.495266999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>126</v>
@@ -3305,7 +3303,7 @@
         <v>66.018102999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>127</v>
@@ -3332,7 +3330,7 @@
         <v>73.991332</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>128</v>
@@ -3359,7 +3357,7 @@
         <v>123.830505</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>129</v>
@@ -3386,7 +3384,7 @@
         <v>158.63559599999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>130</v>
@@ -3413,7 +3411,7 @@
         <v>154.54825700000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>131</v>
@@ -3440,7 +3438,7 @@
         <v>165.637845</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>132</v>
@@ -3467,7 +3465,7 @@
         <v>170.44942699999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>133</v>
@@ -3494,7 +3492,7 @@
         <v>165.24492900000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>134</v>
@@ -3521,7 +3519,7 @@
         <v>133.51466300000001</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>135</v>
@@ -3548,7 +3546,7 @@
         <v>52.838479999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>136</v>
@@ -3575,7 +3573,7 @@
         <v>116.24852</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>137</v>
@@ -3602,7 +3600,7 @@
         <v>61.522640000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>138</v>
@@ -3629,7 +3627,7 @@
         <v>58.205376999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>139</v>
@@ -3656,7 +3654,7 @@
         <v>18.767437000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>140</v>
@@ -3683,7 +3681,7 @@
         <v>21.440832</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>141</v>
@@ -3710,7 +3708,7 @@
         <v>126.74251</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>142</v>
@@ -3737,7 +3735,7 @@
         <v>55.701436000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>143</v>
@@ -3764,7 +3762,7 @@
         <v>147.58930699999999</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>144</v>
@@ -3791,7 +3789,7 @@
         <v>45.243938</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>145</v>
@@ -3818,7 +3816,7 @@
         <v>178.07522399999999</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>146</v>
@@ -3845,7 +3843,7 @@
         <v>98.088025000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>147</v>
@@ -3872,7 +3870,7 @@
         <v>138.21872200000001</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>148</v>
@@ -3899,7 +3897,7 @@
         <v>75.049581000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>149</v>
@@ -3926,7 +3924,7 @@
         <v>81.709325000000007</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>150</v>
@@ -3953,7 +3951,7 @@
         <v>52.005361999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>151</v>
@@ -3980,7 +3978,7 @@
         <v>28.223603000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>152</v>
@@ -4007,7 +4005,7 @@
         <v>167.51234700000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>153</v>
@@ -4034,7 +4032,7 @@
         <v>100.751575</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>154</v>
@@ -4061,7 +4059,7 @@
         <v>82.234532999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>155</v>
@@ -4088,7 +4086,7 @@
         <v>70.283713000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>156</v>
@@ -4115,7 +4113,7 @@
         <v>177.01191900000001</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>157</v>
@@ -4142,7 +4140,7 @@
         <v>70.042738</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>158</v>
@@ -4169,7 +4167,7 @@
         <v>162.53026700000001</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>159</v>
@@ -4196,7 +4194,7 @@
         <v>83.401538000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -4207,7 +4205,7 @@
       <c r="H99" s="67"/>
       <c r="I99" s="67"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>160</v>
       </c>
@@ -4219,7 +4217,7 @@
       <c r="H100" s="76"/>
       <c r="I100" s="76"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
@@ -4231,7 +4229,7 @@
       <c r="H101" s="76"/>
       <c r="I101" s="76"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>162</v>
       </c>
@@ -4243,7 +4241,7 @@
       <c r="H102" s="76"/>
       <c r="I102" s="76"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>163</v>
       </c>
@@ -4255,7 +4253,7 @@
       <c r="H103" s="76"/>
       <c r="I103" s="76"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>164</v>
       </c>
@@ -4267,7 +4265,7 @@
       <c r="H104" s="76"/>
       <c r="I104" s="76"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -4276,7 +4274,7 @@
       <c r="H105" s="76"/>
       <c r="I105" s="76"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -4286,7 +4284,7 @@
       <c r="H106" s="76"/>
       <c r="I106" s="76"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>165</v>
       </c>
@@ -4298,7 +4296,7 @@
       <c r="H107" s="76"/>
       <c r="I107" s="76"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -4308,7 +4306,7 @@
       <c r="H108" s="76"/>
       <c r="I108" s="76"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>167</v>
       </c>
@@ -4320,7 +4318,7 @@
       <c r="H109" s="76"/>
       <c r="I109" s="76"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>168</v>
       </c>
@@ -4332,7 +4330,7 @@
       <c r="H110" s="76"/>
       <c r="I110" s="76"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>169</v>
       </c>
@@ -4344,7 +4342,7 @@
       <c r="H111" s="76"/>
       <c r="I111" s="76"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>166</v>
       </c>
@@ -4356,7 +4354,7 @@
       <c r="H112" s="76"/>
       <c r="I112" s="76"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -4368,12 +4366,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B4082CA0-3DFF-42E0-A0F1-65D11F686F7B}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{C8746B29-A187-4F0A-B03E-BC7C6304676C}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{17A72D0A-6E0C-4662-A6E8-3F42FEB5D820}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{CBE51A40-E532-4865-9FF9-B0094FB18F10}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{6D941D87-3EC6-4B73-936D-49B2DA8546C3}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{48127E9D-53F3-44E3-987D-603A650906D1}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{33ADC8D1-970B-4AD1-A164-511E2E7F98B7}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{932DE057-60D6-4813-8E99-0EC83D07CE45}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{A92A23E0-F8B2-46AB-B4EB-01185F6BED03}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{203E09C6-E592-498B-986D-3B4E13A7ECD5}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{5E1C4CCC-E6A3-479C-9A70-7B9156D3F622}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{CC3731FB-B181-405E-BE96-3165C72B57F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab25.xlsx
+++ b/AfDD_2025_Annex_Table_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FB93DAA-A292-4777-B969-AFCE929582BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23D02A58-2007-46EE-930D-D8618525A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{39E3B7D9-A2F7-4F39-9473-E9BC2650BC56}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{F3FED995-EA99-49AB-8339-D5A8A5038837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division, Global Hunger Index from Welthungerhilfe and Concern Worldwide (2023 edition).</t>
@@ -537,16 +537,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,16 +689,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -925,7 +915,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1153,7 +1143,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1437,11 +1426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA855E20-124D-48C8-9154-99EAEA6E0287}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3C97D7-E8AD-4BE3-A874-658BC1A8428F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1449,7 +1438,7 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="14.453125" style="80" customWidth="1"/>
+    <col min="3" max="9" width="14.453125" style="79" customWidth="1"/>
     <col min="10" max="25" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4284,10 +4273,8 @@
       <c r="H106" s="76"/>
       <c r="I106" s="76"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>165</v>
-      </c>
+    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -4297,7 +4284,9 @@
       <c r="I107" s="76"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="80" t="s">
+        <v>165</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -4307,9 +4296,7 @@
       <c r="I108" s="76"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>167</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -4319,8 +4306,8 @@
       <c r="I109" s="76"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>168</v>
+      <c r="B110" s="80" t="s">
+        <v>166</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -4331,8 +4318,8 @@
       <c r="I110" s="76"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>169</v>
+      <c r="B111" s="80" t="s">
+        <v>167</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -4343,8 +4330,8 @@
       <c r="I111" s="76"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>166</v>
+      <c r="B112" s="80" t="s">
+        <v>169</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -4355,7 +4342,9 @@
       <c r="I112" s="76"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="80" t="s">
+        <v>168</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -4364,17 +4353,26 @@
       <c r="H113" s="76"/>
       <c r="I113" s="76"/>
     </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{33ADC8D1-970B-4AD1-A164-511E2E7F98B7}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{932DE057-60D6-4813-8E99-0EC83D07CE45}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{A92A23E0-F8B2-46AB-B4EB-01185F6BED03}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{203E09C6-E592-498B-986D-3B4E13A7ECD5}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{5E1C4CCC-E6A3-479C-9A70-7B9156D3F622}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{CC3731FB-B181-405E-BE96-3165C72B57F0}"/>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{D6198FEA-7B5B-4F93-AA1A-C92DFFDB32E6}"/>
+    <hyperlink ref="B111" r:id="rId2" xr:uid="{B7EA76AD-1EF3-4D22-AB1F-A1ABE0965236}"/>
+    <hyperlink ref="B108" r:id="rId3" xr:uid="{E8FAAE43-F8A5-4234-B8D1-387AC0F02E3A}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{62BC86D1-04C5-4254-8BC3-14AD76D609F4}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{564E94C4-086D-42C2-AD85-C3938DBC8768}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
